--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12407.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12407.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12407.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12407.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,45 +471,92 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Yousef</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Manar</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>28-02-1980</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Tel Jumaa</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Syrian Arab Republic</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Hattingen</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>Diamande</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>Moussa</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>25-07-1997</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Bakedu</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Guinea</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Datteln</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12407.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12407.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Yousef</t>
+          <t>Moba Ngethie</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Manar</t>
+          <t>Vanouth</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>28-02-1980</t>
+          <t>30-01-1994</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Tel Jumaa</t>
+          <t>Kinshasa</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -501,12 +501,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Syrian Arab Republic</t>
+          <t>Democratic Republic of the Congo</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Hattingen</t>
+          <t>Mettmann</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -518,45 +518,92 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Yousef</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Manar</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>28-02-1980</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Tel Jumaa</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Syrian Arab Republic</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Hattingen</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>Diamande</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>Moussa</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>25-07-1997</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Bakedu</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Guinea</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Datteln</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12407.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12407.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Moba Ngethie</t>
+          <t>Ameen</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vanouth</t>
+          <t>Abeer</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>30-01-1994</t>
+          <t>13-07-1990</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Kinshasa</t>
+          <t>Majdal Anjar</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -501,12 +501,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Democratic Republic of the Congo</t>
+          <t>Lebanon</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Mettmann</t>
+          <t>Mülheim an der Ruhr</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -518,22 +518,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Yousef</t>
+          <t>Moba Ngethie</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Manar</t>
+          <t>Vanouth</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>28-02-1980</t>
+          <t>30-01-1994</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Tel Jumaa</t>
+          <t>Kinshasa</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Syrian Arab Republic</t>
+          <t>Democratic Republic of the Congo</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Hattingen</t>
+          <t>Mettmann</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -565,45 +565,92 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Yousef</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Manar</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>28-02-1980</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Tel Jumaa</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Syrian Arab Republic</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Hattingen</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>Diamande</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>Moussa</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>25-07-1997</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Bakedu</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Guinea</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Datteln</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12407.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12407.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ameen</t>
+          <t>Oualkadi</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Abeer</t>
+          <t>Abdeladim</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>13-07-1990</t>
+          <t>23.07.1994</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Majdal Anjar</t>
+          <t>Iksane Nador</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,17 +496,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lebanon</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Mülheim an der Ruhr</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -518,22 +518,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Moba Ngethie</t>
+          <t>Ameen</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vanouth</t>
+          <t>Abeer</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>30-01-1994</t>
+          <t>13-07-1990</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Kinshasa</t>
+          <t>Majdal Anjar</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Democratic Republic of the Congo</t>
+          <t>Lebanon</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Mettmann</t>
+          <t>Mülheim an der Ruhr</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -565,22 +565,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Yousef</t>
+          <t>Moba Ngethie</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Manar</t>
+          <t>Vanouth</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>28-02-1980</t>
+          <t>30-01-1994</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Tel Jumaa</t>
+          <t>Kinshasa</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -595,12 +595,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Syrian Arab Republic</t>
+          <t>Democratic Republic of the Congo</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Hattingen</t>
+          <t>Mettmann</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -612,45 +612,92 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>Yousef</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Manar</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>28-02-1980</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Tel Jumaa</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Syrian Arab Republic</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Hattingen</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>Diamande</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>Moussa</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>25-07-1997</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Bakedu</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Guinea</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Datteln</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
